--- a/data/outputs/OR_altmetric/45.xlsx
+++ b/data/outputs/OR_altmetric/45.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE55"/>
+  <dimension ref="A1:CF55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1037,6 +1042,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1288,6 +1296,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1549,6 +1560,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1802,6 +1816,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2049,6 +2066,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2294,6 +2314,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2543,6 +2566,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2796,6 +2822,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3057,6 +3086,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3314,6 +3346,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3563,6 +3598,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3822,6 +3860,9 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4061,6 +4102,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4302,6 +4346,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4557,6 +4604,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4800,6 +4850,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5061,6 +5114,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5310,6 +5366,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5567,6 +5626,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5824,6 +5886,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6081,6 +6146,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6326,6 +6394,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6575,6 +6646,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6824,6 +6898,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7073,6 +7150,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7324,6 +7404,9 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7567,6 +7650,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7816,6 +7902,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8073,6 +8162,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8316,6 +8408,9 @@
         <v>0</v>
       </c>
       <c r="CE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8563,6 +8658,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8816,6 +8914,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9077,6 +9178,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9326,6 +9430,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9575,6 +9682,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9824,6 +9934,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10077,6 +10190,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10338,6 +10454,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10587,6 +10706,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10836,6 +10958,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11083,6 +11208,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11322,6 +11450,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11571,6 +11702,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11820,6 +11954,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12069,6 +12206,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12324,6 +12464,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12567,6 +12710,9 @@
         <v>0</v>
       </c>
       <c r="CE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12810,6 +12956,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13051,6 +13200,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13292,6 +13444,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13533,6 +13688,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13790,6 +13948,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14039,6 +14200,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14284,6 +14448,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
